--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="OpCodes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="CCR" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="112">
   <si>
     <t xml:space="preserve">R32V2020 Opcodes</t>
   </si>
@@ -36,102 +36,6 @@
     <t xml:space="preserve">Opcode</t>
   </si>
   <si>
-    <t xml:space="preserve">D31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D00</t>
-  </si>
-  <si>
     <t xml:space="preserve">System</t>
   </si>
   <si>
@@ -405,6 +309,18 @@
     <t xml:space="preserve">BCC</t>
   </si>
   <si>
+    <t xml:space="preserve">Branch Equal to Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch Equal to One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Branch Overflow</t>
   </si>
   <si>
@@ -415,6 +331,33 @@
   </si>
   <si>
     <t xml:space="preserve">BEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition Code Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal to Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal to One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal (r1=r2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instr Ptr Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Ptr Overflow</t>
   </si>
 </sst>
 </file>
@@ -513,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,6 +481,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -555,22 +502,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK10" activeCellId="0" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="4" style="1" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="21" style="1" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="4" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="26" style="1" width="2.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,112 +535,112 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>35</v>
+      <c r="AF2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
@@ -721,87 +667,87 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
@@ -828,87 +774,87 @@
         <v>1</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
@@ -935,87 +881,87 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0</v>
@@ -1042,69 +988,69 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
@@ -1131,69 +1077,69 @@
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0</v>
@@ -1220,69 +1166,69 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>0</v>
@@ -1309,69 +1255,69 @@
         <v>0</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
@@ -1398,69 +1344,69 @@
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
@@ -1487,69 +1433,69 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>0</v>
@@ -1576,69 +1522,69 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>0</v>
@@ -1665,69 +1611,69 @@
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>0</v>
@@ -1754,69 +1700,69 @@
         <v>0</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>0</v>
@@ -1843,69 +1789,69 @@
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>0</v>
@@ -1932,69 +1878,69 @@
         <v>0</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>0</v>
@@ -2021,75 +1967,75 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>0</v>
@@ -2116,25 +2062,25 @@
         <v>0</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2154,13 +2100,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>0</v>
@@ -2187,25 +2133,25 @@
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -2225,13 +2171,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>0</v>
@@ -2258,75 +2204,75 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>0</v>
@@ -2353,81 +2299,81 @@
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>0</v>
@@ -2454,75 +2400,75 @@
         <v>0</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>0</v>
@@ -2549,75 +2495,75 @@
         <v>1</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>0</v>
@@ -2644,75 +2590,75 @@
         <v>0</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>0</v>
@@ -2739,75 +2685,75 @@
         <v>1</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>1</v>
@@ -2834,75 +2780,75 @@
         <v>0</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>1</v>
@@ -2929,75 +2875,75 @@
         <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>1</v>
@@ -3024,75 +2970,75 @@
         <v>0</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>1</v>
@@ -3119,75 +3065,75 @@
         <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>1</v>
@@ -3214,75 +3160,75 @@
         <v>0</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>1</v>
@@ -3309,75 +3255,75 @@
         <v>1</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>1</v>
@@ -3404,75 +3350,75 @@
         <v>0</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>1</v>
@@ -3499,75 +3445,75 @@
         <v>1</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>1</v>
@@ -3594,81 +3540,81 @@
         <v>0</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>1</v>
@@ -3695,87 +3641,87 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>1</v>
@@ -3802,81 +3748,81 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>1</v>
@@ -3903,81 +3849,81 @@
         <v>1</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>1</v>
@@ -4004,81 +3950,81 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>1</v>
@@ -4105,81 +4051,81 @@
         <v>1</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
@@ -4206,76 +4152,278 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI42" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4366,17 +4514,194 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="24" style="0" width="2.68"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OpCodes" sheetId="1" state="visible" r:id="rId2"/>
@@ -456,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,10 +481,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -504,19 +500,20 @@
   </sheetPr>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK10" activeCellId="0" sqref="AK10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="4" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="4.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="26" style="1" width="2.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,25 +4513,26 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="24" style="0" width="2.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="n">
@@ -4719,7 +4717,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="OpCodes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CCR" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Resources" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="122">
   <si>
     <t xml:space="preserve">R32V2020 Opcodes</t>
   </si>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">CMP</t>
   </si>
   <si>
-    <t xml:space="preserve">r3</t>
-  </si>
-  <si>
     <t xml:space="preserve">OR 2 regs and store in 3rd</t>
   </si>
   <si>
@@ -358,6 +355,39 @@
   </si>
   <si>
     <t xml:space="preserve">Data Ptr Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32V2020 Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.E.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multipliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpCodeDecoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUX_16x32</t>
   </si>
 </sst>
 </file>
@@ -456,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,6 +511,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -501,14 +535,14 @@
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="4" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="4.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="1" width="3.79"/>
@@ -1163,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1222,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>0</v>
@@ -1311,10 +1345,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
@@ -1400,10 +1434,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
@@ -1489,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>0</v>
@@ -1525,7 +1559,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1578,10 +1612,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>0</v>
@@ -1614,7 +1648,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1667,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>0</v>
@@ -1703,7 +1737,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1756,10 +1790,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>0</v>
@@ -1792,7 +1826,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1845,10 +1879,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>0</v>
@@ -1881,7 +1915,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -1934,10 +1968,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>0</v>
@@ -2026,13 +2060,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>0</v>
@@ -2077,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2097,13 +2131,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>0</v>
@@ -2148,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -2168,13 +2202,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>0</v>
@@ -2219,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -2263,14 +2297,14 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="4" t="n">
         <v>0</v>
       </c>
@@ -2296,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>7</v>
@@ -2364,13 +2398,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>0</v>
@@ -2415,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -2459,14 +2493,14 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="4" t="n">
         <v>0</v>
       </c>
@@ -2492,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -2554,13 +2588,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>0</v>
@@ -2605,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
@@ -2649,14 +2683,14 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D25" s="4" t="n">
         <v>0</v>
       </c>
@@ -2682,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -2744,13 +2778,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>1</v>
@@ -2795,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
@@ -2839,14 +2873,14 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D27" s="4" t="n">
         <v>1</v>
       </c>
@@ -2872,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -2934,13 +2968,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>1</v>
@@ -2985,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -3029,14 +3063,14 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D29" s="4" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3124,13 +3158,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>1</v>
@@ -3175,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -3219,14 +3253,14 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D31" s="4" t="n">
         <v>1</v>
       </c>
@@ -3252,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3314,40 +3348,40 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3409,13 +3443,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>1</v>
@@ -3460,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -3504,40 +3538,40 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>7</v>
@@ -3605,13 +3639,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>1</v>
@@ -3712,64 +3746,64 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -3813,14 +3847,14 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D37" s="4" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -3914,14 +3948,14 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D38" s="4" t="n">
         <v>1</v>
       </c>
@@ -3971,7 +4005,7 @@
         <v>7</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -4015,14 +4049,14 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D39" s="4" t="n">
         <v>1</v>
       </c>
@@ -4072,7 +4106,7 @@
         <v>7</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -4116,14 +4150,14 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
@@ -4173,7 +4207,7 @@
         <v>7</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
@@ -4217,14 +4251,14 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D41" s="4" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4308,7 @@
         <v>7</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -4318,14 +4352,14 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D42" s="4" t="n">
         <v>1</v>
       </c>
@@ -4375,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>7</v>
@@ -4519,7 +4553,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="24" style="0" width="2.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="8.67"/>
@@ -4527,7 +4561,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4634,7 +4668,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>1</v>
@@ -4642,7 +4676,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>1</v>
@@ -4650,7 +4684,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>1</v>
@@ -4658,7 +4692,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD7" s="0" t="n">
         <v>1</v>
@@ -4666,7 +4700,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
@@ -4674,7 +4708,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>1</v>
@@ -4682,7 +4716,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA10" s="0" t="n">
         <v>1</v>
@@ -4690,7 +4724,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>1</v>
@@ -4715,17 +4749,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.71"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>594</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>321</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <f aca="false">SUM(B3:B10)</f>
+        <v>1158</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">SUM(C3:C10)</f>
+        <v>832</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUM(D3:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">SUM(E3:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">SUM(F3:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="124">
   <si>
     <t xml:space="preserve">R32V2020 Opcodes</t>
   </si>
@@ -285,34 +285,13 @@
     <t xml:space="preserve">Flow_Ctrl</t>
   </si>
   <si>
-    <t xml:space="preserve">Jump to subroutine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(r7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return from subroutine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Branch Always</t>
   </si>
   <si>
     <t xml:space="preserve">BRA</t>
   </si>
   <si>
-    <t xml:space="preserve">(rX)</t>
+    <t xml:space="preserve">Relative Address</t>
   </si>
   <si>
     <t xml:space="preserve">Branch if carry is set</t>
@@ -339,10 +318,16 @@
     <t xml:space="preserve">BE1</t>
   </si>
   <si>
-    <t xml:space="preserve">Branch Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOV</t>
+    <t xml:space="preserve">Branch Greater Than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch Less Than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLE</t>
   </si>
   <si>
     <t xml:space="preserve">Branch Equal</t>
@@ -418,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,6 +442,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -466,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="34">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -705,34 +696,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -759,7 +722,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -956,32 +919,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1009,10 +948,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42:K43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L36" activeCellId="0" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4204,107 +4143,107 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="53" t="s">
+      <c r="D36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI36" s="52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI36" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
         <v>86</v>
       </c>
@@ -4338,80 +4277,74 @@
       <c r="K37" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="U37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="V37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="W37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="X37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI37" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI37" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
         <v>86</v>
       </c>
@@ -4445,68 +4378,74 @@
       <c r="K38" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI38" s="43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI38" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
         <v>86</v>
       </c>
@@ -4526,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="14" t="n">
         <v>0</v>
@@ -4535,88 +4474,88 @@
         <v>0</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI39" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI39" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="D40" s="13" t="n">
         <v>1</v>
       </c>
@@ -4627,97 +4566,97 @@
         <v>0</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="14" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K40" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI40" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI40" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D41" s="13" t="n">
         <v>1</v>
       </c>
@@ -4728,499 +4667,293 @@
         <v>0</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="14" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI41" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI41" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI42" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI42" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T43" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI43" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T44" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI44" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T45" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="U45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="V45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="W45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="X45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI45" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="D43" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="R43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI43" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="80">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="P6:S6"/>
@@ -5293,10 +5026,14 @@
     <mergeCell ref="T34:W34"/>
     <mergeCell ref="L35:O35"/>
     <mergeCell ref="T35:W35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="L36:AI36"/>
+    <mergeCell ref="L37:AI37"/>
+    <mergeCell ref="L38:AI38"/>
+    <mergeCell ref="L39:AI39"/>
+    <mergeCell ref="L40:AI40"/>
+    <mergeCell ref="L41:AI41"/>
+    <mergeCell ref="L42:AI42"/>
+    <mergeCell ref="L43:AI43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5316,7 +5053,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="1" sqref="C42:K43 Z11"/>
+      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5329,7 +5066,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5337,106 +5074,106 @@
       <c r="E1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="56" t="n">
+      <c r="B3" s="50" t="n">
         <v>31</v>
       </c>
-      <c r="C3" s="56" t="n">
+      <c r="C3" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="D3" s="56" t="n">
+      <c r="D3" s="50" t="n">
         <v>29</v>
       </c>
-      <c r="E3" s="56" t="n">
+      <c r="E3" s="50" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="56" t="n">
+      <c r="F3" s="50" t="n">
         <v>27</v>
       </c>
-      <c r="G3" s="56" t="n">
+      <c r="G3" s="50" t="n">
         <v>26</v>
       </c>
-      <c r="H3" s="56" t="n">
+      <c r="H3" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="I3" s="56" t="n">
+      <c r="I3" s="50" t="n">
         <v>24</v>
       </c>
-      <c r="J3" s="56" t="n">
+      <c r="J3" s="50" t="n">
         <v>23</v>
       </c>
-      <c r="K3" s="56" t="n">
+      <c r="K3" s="50" t="n">
         <v>22</v>
       </c>
-      <c r="L3" s="56" t="n">
+      <c r="L3" s="50" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="56" t="n">
+      <c r="M3" s="50" t="n">
         <v>20</v>
       </c>
-      <c r="N3" s="56" t="n">
+      <c r="N3" s="50" t="n">
         <v>19</v>
       </c>
-      <c r="O3" s="56" t="n">
+      <c r="O3" s="50" t="n">
         <v>18</v>
       </c>
-      <c r="P3" s="56" t="n">
+      <c r="P3" s="50" t="n">
         <v>17</v>
       </c>
-      <c r="Q3" s="56" t="n">
+      <c r="Q3" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="R3" s="56" t="n">
+      <c r="R3" s="50" t="n">
         <v>15</v>
       </c>
-      <c r="S3" s="56" t="n">
+      <c r="S3" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="T3" s="56" t="n">
+      <c r="T3" s="50" t="n">
         <v>13</v>
       </c>
-      <c r="U3" s="56" t="n">
+      <c r="U3" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="V3" s="56" t="n">
+      <c r="V3" s="50" t="n">
         <v>11</v>
       </c>
-      <c r="W3" s="56" t="n">
+      <c r="W3" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="X3" s="56" t="n">
+      <c r="X3" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="Y3" s="56" t="n">
+      <c r="Y3" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="Z3" s="56" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="56" t="n">
+      <c r="Z3" s="50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="AB3" s="56" t="n">
+      <c r="AB3" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="AC3" s="56" t="n">
+      <c r="AC3" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="AD3" s="56" t="n">
+      <c r="AD3" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AE3" s="56" t="n">
+      <c r="AE3" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="56" t="n">
+      <c r="AF3" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>1</v>
@@ -5444,7 +5181,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>1</v>
@@ -5452,7 +5189,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>1</v>
@@ -5460,7 +5197,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AD7" s="0" t="n">
         <v>1</v>
@@ -5468,7 +5205,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
@@ -5476,7 +5213,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>1</v>
@@ -5484,7 +5221,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AA10" s="0" t="n">
         <v>1</v>
@@ -5492,7 +5229,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>1</v>
@@ -5520,7 +5257,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="C42:K43 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5537,129 +5274,129 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="57" t="n">
+        <v>120</v>
+      </c>
+      <c r="B3" s="51" t="n">
         <v>54</v>
       </c>
-      <c r="C3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>126</v>
+      <c r="C3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="57" t="n">
+      <c r="B4" s="51" t="n">
         <v>189</v>
       </c>
-      <c r="C4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="57" t="n">
+      <c r="C4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="57" t="n">
+        <v>122</v>
+      </c>
+      <c r="B5" s="51" t="n">
         <v>594</v>
       </c>
-      <c r="C5" s="57" t="n">
+      <c r="C5" s="51" t="n">
         <v>416</v>
       </c>
-      <c r="D5" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="57" t="n">
+      <c r="D5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="57" t="n">
+        <v>123</v>
+      </c>
+      <c r="B6" s="51" t="n">
         <v>321</v>
       </c>
-      <c r="C6" s="57" t="n">
+      <c r="C6" s="51" t="n">
         <v>416</v>
       </c>
-      <c r="D6" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="57" t="n">
+      <c r="D6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="530">
   <si>
     <t xml:space="preserve">R32V2020 Opcodes</t>
   </si>
@@ -339,61 +339,1279 @@
     <t xml:space="preserve">Condition Code Register</t>
   </si>
   <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equal to Zero</t>
   </si>
   <si>
     <t xml:space="preserve">Equal to One</t>
   </si>
   <si>
+    <t xml:space="preserve">Carry Clear</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carry Set</t>
   </si>
   <si>
-    <t xml:space="preserve">Carry Clear</t>
+    <t xml:space="preserve">BLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater than</t>
   </si>
   <si>
     <t xml:space="preserve">Equal (r1=r2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Stack Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instr Ptr Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Ptr Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R32V2020 Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.E.s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multipliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLLs</t>
+    <t xml:space="preserve">Fitter Resource Utilization by Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilation Hierarchy Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicated Logic Registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9Ks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP 9x9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP 18x18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUT-Only LCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register-Only LCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUT/Register LCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Hierarchy Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3732 (144)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1881 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1851 (133)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">876 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1005 (25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32V2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |ALU:ALU|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309 (281)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 (274)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|ALU:ALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |lpm_mult:Mult0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|ALU:ALU|lpm_mult:Mult0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpm_mult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |mult_7dt:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|ALU:ALU|lpm_mult:Mult0|mult_7dt:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mult_7dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |BlockRam_Data:Data_RAM|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRam_Data:Data_RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockRam_Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |altsyncram:altsyncram_component|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRam_Data:Data_RAM|altsyncram:altsyncram_component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |altsyncram_dvn3:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRam_Data:Data_RAM|altsyncram:altsyncram_component|altsyncram_dvn3:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_dvn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |BlockRam_Stack:Stack_RAM|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRam_Stack:Stack_RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockRam_Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRam_Stack:Stack_RAM|altsyncram:altsyncram_component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |altsyncram_d7p3:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRam_Stack:Stack_RAM|altsyncram:altsyncram_component|altsyncram_d7p3:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_d7p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |BlockRom_Instruction:Instr_ROM|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRom_Instruction:Instr_ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockRom_Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRom_Instruction:Instr_ROM|altsyncram:altsyncram_component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |altsyncram_2r24:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRom_Instruction:Instr_ROM|altsyncram:altsyncram_component|altsyncram_2r24:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_2r24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |altsyncram_0a33:altsyncram1|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRom_Instruction:Instr_ROM|altsyncram:altsyncram_component|altsyncram_2r24:auto_generated|altsyncram_0a33:altsyncram1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_0a33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |sld_mod_ram_rom:mgl_prim2|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 (78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 (56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 (49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRom_Instruction:Instr_ROM|altsyncram:altsyncram_component|altsyncram_2r24:auto_generated|sld_mod_ram_rom:mgl_prim2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_mod_ram_rom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |sld_rom_sr:\ram_rom_logic_gen:no_name_gen:info_rom_sr|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|BlockRom_Instruction:Instr_ROM|altsyncram:altsyncram_component|altsyncram_2r24:auto_generated|sld_mod_ram_rom:mgl_prim2|sld_rom_sr:\ram_rom_logic_gen:no_name_gen:info_rom_sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_rom_sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |CCRControl:flowControl|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|CCRControl:flowControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCRControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |Loadable_7S4D_LED:SevenSegDisplay|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|Loadable_7S4D_LED:SevenSegDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loadable_7S4D_LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |OneHotStateMachine:StateMachine|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|OneHotStateMachine:StateMachine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneHotStateMachine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |OpCodeDecoder:opcodeDecoder|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|OpCodeDecoder:opcodeDecoder</t>
   </si>
   <si>
     <t xml:space="preserve">OpCodeDecoder</t>
   </si>
   <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register File</t>
+    <t xml:space="preserve">      |OpCode_Cat_Decoder:opc_Cat_Decoder|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|OpCodeDecoder:opcodeDecoder|OpCode_Cat_Decoder:opc_Cat_Decoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpCode_Cat_Decoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |PeripheralInterface:Peripherals|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1076 (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171 (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">904 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133 (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeripheralInterface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |Mem_Mapped_SVGA:SVGA|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|Mem_Mapped_SVGA:SVGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mem_Mapped_SVGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |DisplayRam2k:DisplayRAM|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|Mem_Mapped_SVGA:SVGA|DisplayRam2k:DisplayRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayRam2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |altsyncram:altsyncram_component|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|Mem_Mapped_SVGA:SVGA|DisplayRam2k:DisplayRAM|altsyncram:altsyncram_component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |altsyncram_b0q3:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|Mem_Mapped_SVGA:SVGA|DisplayRam2k:DisplayRAM|altsyncram:altsyncram_component|altsyncram_b0q3:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_b0q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |Video_SVGA_64x32:Video_SVGA_64x32|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814 (814)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">791 (791)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|Mem_Mapped_SVGA:SVGA|Video_SVGA_64x32:Video_SVGA_64x32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video_SVGA_64x32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |bufferedUART:UART|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184 (184)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 (94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 (90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|bufferedUART:UART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bufferedUART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |altsyncram:rxBuffer_rtl_0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|bufferedUART:UART|altsyncram:rxBuffer_rtl_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |altsyncram_3ce1:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|bufferedUART:UART|altsyncram:rxBuffer_rtl_0|altsyncram_3ce1:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_3ce1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |ps2_intf:ps2Keyboard|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|PeripheralInterface:Peripherals|ps2_intf:ps2Keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps2_intf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |REG_16:SevenSegmentDisplayLatch|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|REG_16:SevenSegmentDisplayLatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |RegisterFile:RegisterFile|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">655 (27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266 (27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegisterFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |COUNT_32:dataRamAddress|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|COUNT_32:dataRamAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |COUNT_32:peripheralAddress|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|COUNT_32:peripheralAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |COUNT_32:programCounter|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|COUNT_32:programCounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |COUNT_32:stackAddress|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|COUNT_32:stackAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |MUX_16x32:muxA|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262 (262)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133 (133)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129 (129)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|MUX_16x32:muxA</t>
   </si>
   <si>
     <t xml:space="preserve">MUX_16x32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |MUX_16x32:muxB|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 (172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|MUX_16x32:muxB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r10Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r10Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r10Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r10Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r11Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r11Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r11Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r11Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r12Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r12Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r12Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r12Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r13Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r13Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r13Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r13Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r14Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r14Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r14Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r14Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r15Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r15Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r15Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r15Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r8Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r8Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r8Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r8Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r9Lower|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r9Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_16:r9Upper|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_16:r9Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |REG_32:conditionCodeRegister|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|RegisterFile:RegisterFile|REG_32:conditionCodeRegister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |VideoClk_SVGA_800x600:clockGen|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|VideoClk_SVGA_800x600:clockGen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoClk_SVGA_800x600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |altpll:altpll_component|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|VideoClk_SVGA_800x600:clockGen|altpll:altpll_component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altpll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |VideoClk_SVGA_800x600_altpll:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|VideoClk_SVGA_800x600:clockGen|altpll:altpll_component|VideoClk_SVGA_800x600_altpll:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoClk_SVGA_800x600_altpll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |sld_hub:auto_hub|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altera_sld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt_sld_fab_with_jtag_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |alt_sld_fab:instrumentation_fabric|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|alt_sld_fab:instrumentation_fabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt_sld_fab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |alt_sld_fab_alt_sld_fab:alt_sld_fab|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 (7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|alt_sld_fab:instrumentation_fabric|alt_sld_fab_alt_sld_fab:alt_sld_fab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt_sld_fab_alt_sld_fab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |alt_sld_fab_alt_sld_fab_sldfabric:sldfabric|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|alt_sld_fab:instrumentation_fabric|alt_sld_fab_alt_sld_fab:alt_sld_fab|alt_sld_fab_alt_sld_fab_sldfabric:sldfabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt_sld_fab_alt_sld_fab_sldfabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |sld_jtag_hub:\jtag_hub_gen:real_sld_jtag_hub|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194 (153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 (86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 (63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 (79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|alt_sld_fab:instrumentation_fabric|alt_sld_fab_alt_sld_fab:alt_sld_fab|alt_sld_fab_alt_sld_fab_sldfabric:sldfabric|sld_jtag_hub:\jtag_hub_gen:real_sld_jtag_hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_jtag_hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     |sld_rom_sr:hub_info_reg|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|alt_sld_fab:instrumentation_fabric|alt_sld_fab_alt_sld_fab:alt_sld_fab|alt_sld_fab_alt_sld_fab_sldfabric:sldfabric|sld_jtag_hub:\jtag_hub_gen:real_sld_jtag_hub|sld_rom_sr:hub_info_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     |sld_shadow_jsm:shadow_jsm|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_hub:auto_hub|alt_sld_fab_with_jtag_input:\instrumentation_fabric_with_node_gen:fabric_gen_new_way:with_jtag_input_gen:instrumentation_fabric|alt_sld_fab:instrumentation_fabric|alt_sld_fab_alt_sld_fab:alt_sld_fab|alt_sld_fab_alt_sld_fab_sldfabric:sldfabric|sld_jtag_hub:\jtag_hub_gen:real_sld_jtag_hub|sld_shadow_jsm:shadow_jsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_shadow_jsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   |sld_signaltap:auto_signaltap_0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1188 (137)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1091 (136)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">754 (135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_signaltap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      |sld_signaltap_impl:sld_signaltap_body|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1051 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_signaltap_impl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         |sld_signaltap_implb:sld_signaltap_body|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1051 (645)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955 (614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 (32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619 (554)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337 (57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_signaltap_implb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |altdpram:\stp_non_zero_ram_gen:attribute_mem_gen:attribute_mem|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altdpram:\stp_non_zero_ram_gen:attribute_mem_gen:attribute_mem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altdpram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_decode:wdecoder|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altdpram:\stp_non_zero_ram_gen:attribute_mem_gen:attribute_mem|lpm_decode:wdecoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpm_decode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |decode_dvf:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altdpram:\stp_non_zero_ram_gen:attribute_mem_gen:attribute_mem|lpm_decode:wdecoder|decode_dvf:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_dvf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_mux:mux|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altdpram:\stp_non_zero_ram_gen:attribute_mem_gen:attribute_mem|lpm_mux:mux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpm_mux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |mux_ssc:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altdpram:\stp_non_zero_ram_gen:attribute_mem_gen:attribute_mem|lpm_mux:mux|mux_ssc:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mux_ssc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |altsyncram:\stp_non_zero_ram_gen:stp_buffer_ram|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altsyncram:\stp_non_zero_ram_gen:stp_buffer_ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |altsyncram_8824:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|altsyncram:\stp_non_zero_ram_gen:stp_buffer_ram|altsyncram_8824:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altsyncram_8824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |lpm_shiftreg:segment_offset_config_deserialize|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|lpm_shiftreg:segment_offset_config_deserialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpm_shiftreg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |lpm_shiftreg:status_register|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|lpm_shiftreg:status_register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |serial_crc_16:\tdo_crc_gen:tdo_crc_calc|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|serial_crc_16:\tdo_crc_gen:tdo_crc_calc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial_crc_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |sld_buffer_manager:sld_buffer_manager_inst|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_buffer_manager:sld_buffer_manager_inst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_buffer_manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |sld_ela_control:ela_control|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_ela_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_shiftreg:trigger_config_deserialize|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|lpm_shiftreg:trigger_config_deserialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |sld_ela_basic_multi_level_trigger:\basic_multi_level_mbpm_trigger_gen:multi_level_mbpm|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|sld_ela_basic_multi_level_trigger:\basic_multi_level_mbpm_trigger_gen:multi_level_mbpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_ela_basic_multi_level_trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |lpm_shiftreg:trigger_condition_deserialize|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|sld_ela_basic_multi_level_trigger:\basic_multi_level_mbpm_trigger_gen:multi_level_mbpm|lpm_shiftreg:trigger_condition_deserialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |sld_mbpmg:\trigger_modules_gen:0:trigger_match|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|sld_ela_basic_multi_level_trigger:\basic_multi_level_mbpm_trigger_gen:multi_level_mbpm|sld_mbpmg:\trigger_modules_gen:0:trigger_match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_mbpmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     |sld_sbpmg:\gen_sbpmg_pipeline_less_than_two:sm0:0:sm1|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|sld_ela_basic_multi_level_trigger:\basic_multi_level_mbpm_trigger_gen:multi_level_mbpm|sld_mbpmg:\trigger_modules_gen:0:trigger_match|sld_sbpmg:\gen_sbpmg_pipeline_less_than_two:sm0:0:sm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_sbpmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |sld_ela_trigger_flow_mgr:\builtin:ela_trigger_flow_mgr_entity|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|sld_ela_trigger_flow_mgr:\builtin:ela_trigger_flow_mgr_entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_ela_trigger_flow_mgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |lpm_shiftreg:trigger_config_deserialize|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_ela_control:ela_control|sld_ela_trigger_flow_mgr:\builtin:ela_trigger_flow_mgr_entity|lpm_shiftreg:trigger_config_deserialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld_offload_buffer_mgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_counter:\adv_point_3_and_more:advance_pointer_counter|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:\adv_point_3_and_more:advance_pointer_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpm_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |cntr_5ii:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:\adv_point_3_and_more:advance_pointer_counter|cntr_5ii:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cntr_5ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_counter:read_pointer_counter|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:read_pointer_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |cntr_i6j:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:read_pointer_counter|cntr_i6j:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cntr_i6j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_counter:status_advance_pointer_counter|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:status_advance_pointer_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |cntr_egi:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:status_advance_pointer_counter|cntr_egi:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cntr_egi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_counter:status_read_pointer_counter|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:status_read_pointer_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  |cntr_23j:auto_generated|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_counter:status_read_pointer_counter|cntr_23j:auto_generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cntr_23j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_shiftreg:info_data_shift_out|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_shiftreg:info_data_shift_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_shiftreg:ram_data_shift_out|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138 (138)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 (135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_shiftreg:ram_data_shift_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               |lpm_shiftreg:status_data_shift_out|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_offload_buffer_mgr:\stp_non_zero_depth_offload_gen:stp_offload_buff_mgr_inst|lpm_shiftreg:status_data_shift_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |sld_rom_sr:crc_rom_sr|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|R32V2020|sld_signaltap:auto_signaltap_0|sld_signaltap_impl:sld_signaltap_body|sld_signaltap_implb:sld_signaltap_body|sld_rom_sr:crc_rom_sr</t>
   </si>
 </sst>
 </file>
@@ -443,10 +1661,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFCE181E"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -722,7 +1942,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,15 +2139,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -940,6 +2156,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -950,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L36" activeCellId="0" sqref="L36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4176,70 +5452,70 @@
       <c r="K36" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" s="49" t="s">
+      <c r="M36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI36" s="49" t="s">
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI36" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4277,70 +5553,70 @@
       <c r="K37" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="49" t="s">
+      <c r="M37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI37" s="49" t="s">
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI37" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4378,70 +5654,70 @@
       <c r="K38" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L38" s="49" t="s">
+      <c r="L38" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" s="49" t="s">
+      <c r="M38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI38" s="49" t="s">
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI38" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4479,70 +5755,70 @@
       <c r="K39" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="L39" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39" s="49" t="s">
+      <c r="M39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI39" s="49" t="s">
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI39" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4580,70 +5856,70 @@
       <c r="K40" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L40" s="49" t="s">
+      <c r="L40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40" s="49" t="s">
+      <c r="M40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI40" s="49" t="s">
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI40" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4681,70 +5957,70 @@
       <c r="K41" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L41" s="49" t="s">
+      <c r="L41" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="49" t="s">
+      <c r="M41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI41" s="49" t="s">
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI41" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4782,70 +6058,70 @@
       <c r="K42" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="49" t="s">
+      <c r="L42" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T42" s="49" t="s">
+      <c r="M42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI42" s="49" t="s">
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI42" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4883,70 +6159,70 @@
       <c r="K43" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="L43" s="49" t="s">
+      <c r="L43" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="N43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T43" s="49" t="s">
+      <c r="M43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI43" s="49" t="s">
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI43" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5050,21 +6326,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="24" style="0" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="3.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="25" style="0" width="2.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="3.79"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -5073,168 +6350,878 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="50" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="49" t="n">
         <v>31</v>
       </c>
-      <c r="C3" s="50" t="n">
+      <c r="D3" s="49" t="n">
         <v>30</v>
       </c>
-      <c r="D3" s="50" t="n">
+      <c r="E3" s="49" t="n">
         <v>29</v>
       </c>
-      <c r="E3" s="50" t="n">
+      <c r="F3" s="49" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="50" t="n">
+      <c r="G3" s="49" t="n">
         <v>27</v>
       </c>
-      <c r="G3" s="50" t="n">
+      <c r="H3" s="49" t="n">
         <v>26</v>
       </c>
-      <c r="H3" s="50" t="n">
+      <c r="I3" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="I3" s="50" t="n">
+      <c r="J3" s="49" t="n">
         <v>24</v>
       </c>
-      <c r="J3" s="50" t="n">
+      <c r="K3" s="49" t="n">
         <v>23</v>
       </c>
-      <c r="K3" s="50" t="n">
+      <c r="L3" s="49" t="n">
         <v>22</v>
       </c>
-      <c r="L3" s="50" t="n">
+      <c r="M3" s="49" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="50" t="n">
+      <c r="N3" s="49" t="n">
         <v>20</v>
       </c>
-      <c r="N3" s="50" t="n">
+      <c r="O3" s="49" t="n">
         <v>19</v>
       </c>
-      <c r="O3" s="50" t="n">
+      <c r="P3" s="49" t="n">
         <v>18</v>
       </c>
-      <c r="P3" s="50" t="n">
+      <c r="Q3" s="49" t="n">
         <v>17</v>
       </c>
-      <c r="Q3" s="50" t="n">
+      <c r="R3" s="49" t="n">
         <v>16</v>
       </c>
-      <c r="R3" s="50" t="n">
+      <c r="S3" s="49" t="n">
         <v>15</v>
       </c>
-      <c r="S3" s="50" t="n">
+      <c r="T3" s="49" t="n">
         <v>14</v>
       </c>
-      <c r="T3" s="50" t="n">
+      <c r="U3" s="49" t="n">
         <v>13</v>
       </c>
-      <c r="U3" s="50" t="n">
+      <c r="V3" s="49" t="n">
         <v>12</v>
       </c>
-      <c r="V3" s="50" t="n">
+      <c r="W3" s="49" t="n">
         <v>11</v>
       </c>
-      <c r="W3" s="50" t="n">
+      <c r="X3" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="X3" s="50" t="n">
+      <c r="Y3" s="49" t="n">
         <v>9</v>
       </c>
-      <c r="Y3" s="50" t="n">
+      <c r="Z3" s="49" t="n">
         <v>8</v>
       </c>
-      <c r="Z3" s="50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="50" t="n">
+      <c r="AA3" s="49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="49" t="n">
         <v>6</v>
       </c>
-      <c r="AB3" s="50" t="n">
+      <c r="AC3" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="AC3" s="50" t="n">
+      <c r="AD3" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="AD3" s="50" t="n">
+      <c r="AE3" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="AE3" s="50" t="n">
+      <c r="AF3" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" s="50" t="n">
+      <c r="AG3" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="AG3" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH3" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG4" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF5" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE6" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD7" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC8" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA10" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="AC10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI22" s="0"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -5254,170 +7241,5495 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="281.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="51" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="B3" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="C3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="D3" s="0" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="51" t="n">
-        <v>54</v>
-      </c>
-      <c r="C3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>66560</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51" t="n">
+      <c r="Q5" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>8192</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="51" t="n">
-        <v>594</v>
-      </c>
-      <c r="C5" s="51" t="n">
+      <c r="M18" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>16512</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>16384</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>17280</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>17280</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="51" t="n">
-        <v>321</v>
-      </c>
-      <c r="C6" s="51" t="n">
-        <v>416</v>
-      </c>
-      <c r="D6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
-        <f aca="false">SUM(B3:B10)</f>
-        <v>1158</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">SUM(C3:C10)</f>
-        <v>832</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">SUM(D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">SUM(E3:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">SUM(F3:F10)</f>
-        <v>0</v>
+      <c r="D73" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>17280</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>17280</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>17280</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q82" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q89" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N90" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="P90" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q90" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="O91" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="P91" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q91" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O92" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q92" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="O93" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q93" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q94" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q97" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="P98" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q98" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="P99" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q102" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="P103" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q103" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q105" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OpCodes" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="531">
   <si>
     <t xml:space="preserve">R32V2020 Opcodes</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t xml:space="preserve">Equal (r1=r2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Equal (r1&lt;&gt;r2)</t>
   </si>
   <si>
     <t xml:space="preserve">Fitter Resource Utilization by Entity</t>
@@ -2226,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6328,17 +6331,18 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="3.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="25" style="0" width="2.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,6 +7208,113 @@
       </c>
       <c r="AI10" s="1" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,89 +7366,90 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="281.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="281.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>66560</v>
@@ -7361,36 +7473,36 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -7414,36 +7526,36 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -7467,36 +7579,36 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -7520,36 +7632,36 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8192</v>
@@ -7573,36 +7685,36 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8192</v>
@@ -7626,36 +7738,36 @@
         <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8192</v>
@@ -7679,36 +7791,36 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>8192</v>
@@ -7732,36 +7844,36 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>8192</v>
@@ -7785,36 +7897,36 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>8192</v>
@@ -7838,36 +7950,36 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>16384</v>
@@ -7891,36 +8003,36 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>16384</v>
@@ -7944,36 +8056,36 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>16384</v>
@@ -7997,36 +8109,36 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16384</v>
@@ -8050,36 +8162,36 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
@@ -8103,36 +8215,36 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
@@ -8156,36 +8268,36 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
@@ -8209,36 +8321,36 @@
         <v>0</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -8262,36 +8374,36 @@
         <v>0</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -8315,36 +8427,36 @@
         <v>0</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
@@ -8368,36 +8480,36 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -8421,36 +8533,36 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>16512</v>
@@ -8474,36 +8586,36 @@
         <v>0</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>16384</v>
@@ -8527,36 +8639,36 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="M26" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="O26" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>16384</v>
@@ -8580,36 +8692,36 @@
         <v>0</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16384</v>
@@ -8633,36 +8745,36 @@
         <v>0</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>16384</v>
@@ -8686,36 +8798,36 @@
         <v>0</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
@@ -8739,36 +8851,36 @@
         <v>0</v>
       </c>
       <c r="L30" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N30" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>246</v>
-      </c>
       <c r="O30" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>128</v>
@@ -8792,36 +8904,36 @@
         <v>0</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>128</v>
@@ -8845,36 +8957,36 @@
         <v>0</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>128</v>
@@ -8898,36 +9010,36 @@
         <v>0</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -8951,36 +9063,36 @@
         <v>0</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -9004,36 +9116,36 @@
         <v>0</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -9057,36 +9169,36 @@
         <v>0</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
@@ -9110,89 +9222,89 @@
         <v>0</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="P38" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="N38" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="P38" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="Q38" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>0</v>
@@ -9216,36 +9328,36 @@
         <v>0</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>0</v>
@@ -9269,36 +9381,36 @@
         <v>0</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>0</v>
@@ -9322,89 +9434,89 @@
         <v>0</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="P42" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="N42" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="P42" s="0" t="s">
-        <v>302</v>
-      </c>
       <c r="Q42" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
@@ -9428,36 +9540,36 @@
         <v>0</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
@@ -9481,36 +9593,36 @@
         <v>0</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0</v>
@@ -9534,36 +9646,36 @@
         <v>0</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
@@ -9587,36 +9699,36 @@
         <v>0</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
@@ -9640,36 +9752,36 @@
         <v>0</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0</v>
@@ -9693,36 +9805,36 @@
         <v>0</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0</v>
@@ -9746,36 +9858,36 @@
         <v>0</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0</v>
@@ -9799,36 +9911,36 @@
         <v>0</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0</v>
@@ -9852,36 +9964,36 @@
         <v>0</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0</v>
@@ -9905,36 +10017,36 @@
         <v>0</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0</v>
@@ -9958,36 +10070,36 @@
         <v>0</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M53" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="N53" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="N53" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="O53" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>0</v>
@@ -10011,36 +10123,36 @@
         <v>0</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0</v>
@@ -10064,36 +10176,36 @@
         <v>0</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>0</v>
@@ -10117,36 +10229,36 @@
         <v>0</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>0</v>
@@ -10170,36 +10282,36 @@
         <v>0</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>0</v>
@@ -10223,36 +10335,36 @@
         <v>0</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>0</v>
@@ -10276,36 +10388,36 @@
         <v>0</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>0</v>
@@ -10329,36 +10441,36 @@
         <v>0</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>0</v>
@@ -10382,36 +10494,36 @@
         <v>0</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>0</v>
@@ -10435,36 +10547,36 @@
         <v>0</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>0</v>
@@ -10488,89 +10600,89 @@
         <v>0</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q64" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="P64" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q64" s="0" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0</v>
@@ -10594,89 +10706,89 @@
         <v>0</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q66" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q66" s="0" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0</v>
@@ -10700,36 +10812,36 @@
         <v>0</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0</v>
@@ -10753,36 +10865,36 @@
         <v>0</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0</v>
@@ -10806,36 +10918,36 @@
         <v>0</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>0</v>
@@ -10859,36 +10971,36 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>17280</v>
@@ -10912,36 +11024,36 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>17280</v>
@@ -10965,36 +11077,36 @@
         <v>0</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>17280</v>
@@ -11018,36 +11130,36 @@
         <v>0</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>0</v>
@@ -11071,36 +11183,36 @@
         <v>0</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>0</v>
@@ -11124,36 +11236,36 @@
         <v>0</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0</v>
@@ -11177,36 +11289,36 @@
         <v>0</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>0</v>
@@ -11230,36 +11342,36 @@
         <v>0</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>0</v>
@@ -11283,36 +11395,36 @@
         <v>0</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>17280</v>
@@ -11336,36 +11448,36 @@
         <v>0</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>17280</v>
@@ -11389,36 +11501,36 @@
         <v>0</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>0</v>
@@ -11442,89 +11554,89 @@
         <v>0</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="P82" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="O82" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="P82" s="0" t="s">
-        <v>449</v>
-      </c>
       <c r="Q82" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>0</v>
@@ -11548,36 +11660,36 @@
         <v>0</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>0</v>
@@ -11601,36 +11713,36 @@
         <v>0</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>0</v>
@@ -11654,36 +11766,36 @@
         <v>0</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>0</v>
@@ -11707,36 +11819,36 @@
         <v>0</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>0</v>
@@ -11760,36 +11872,36 @@
         <v>0</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>0</v>
@@ -11813,36 +11925,36 @@
         <v>0</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>0</v>
@@ -11866,36 +11978,36 @@
         <v>0</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>0</v>
@@ -11919,36 +12031,36 @@
         <v>0</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>0</v>
@@ -11972,36 +12084,36 @@
         <v>0</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>0</v>
@@ -12025,36 +12137,36 @@
         <v>0</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>0</v>
@@ -12078,36 +12190,36 @@
         <v>0</v>
       </c>
       <c r="L93" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="N93" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="M93" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="N93" s="0" t="s">
-        <v>490</v>
-      </c>
       <c r="O93" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>0</v>
@@ -12131,36 +12243,36 @@
         <v>0</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O94" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>0</v>
@@ -12184,36 +12296,36 @@
         <v>0</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q95" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>0</v>
@@ -12237,36 +12349,36 @@
         <v>0</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q96" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>0</v>
@@ -12290,36 +12402,36 @@
         <v>0</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>0</v>
@@ -12343,36 +12455,36 @@
         <v>0</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>0</v>
@@ -12396,36 +12508,36 @@
         <v>0</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>0</v>
@@ -12449,36 +12561,36 @@
         <v>0</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>0</v>
@@ -12502,36 +12614,36 @@
         <v>0</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>0</v>
@@ -12555,36 +12667,36 @@
         <v>0</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>0</v>
@@ -12608,36 +12720,36 @@
         <v>0</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>0</v>
@@ -12661,36 +12773,36 @@
         <v>0</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>0</v>
@@ -12714,22 +12826,22 @@
         <v>0</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -2229,7 +2229,7 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
     </sheetView>
   </sheetViews>
@@ -6338,7 +6338,7 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="3.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="25" style="0" width="2.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="3.79"/>

--- a/Architecture/OpCodes/R32V2020.xlsx
+++ b/Architecture/OpCodes/R32V2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OpCodes" sheetId="1" state="visible" r:id="rId2"/>
@@ -2229,7 +2229,7 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
     </sheetView>
   </sheetViews>
@@ -6331,14 +6331,14 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="0" width="3.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="25" style="0" width="2.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="3.79"/>
@@ -7369,7 +7369,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.3"/>
